--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ImportExcelTemplate/KhachHang_ImportTemplate.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ImportExcelTemplate/KhachHang_ImportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code-manhld-github\beautify_app_flutter\beautify_api\8.0.0\aspnet-core\src\BanHangBeautify.Web.Host\wwwroot\ExcelImportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\Open beauty\lucky_beauty\beautify_api\8.0.0\aspnet-core\src\BanHangBeautify.Web.Host\wwwroot\ImportExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Họ và tên</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Số điện  thoại</t>
   </si>
@@ -35,23 +32,80 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Giới tính</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Ngày sinh</t>
   </si>
   <si>
-    <t>Danh sách khách hàng Import</t>
+    <t>Nhóm khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giới tính</t>
+  </si>
+  <si>
+    <t>Khách Hà Nội</t>
+  </si>
+  <si>
+    <t>Khách VIP</t>
+  </si>
+  <si>
+    <t>Nguyễn Huyền Thương</t>
+  </si>
+  <si>
+    <t>0978456123</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>0978441445</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>C Huyền Ecopark</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Tên khách hàng (*)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MẪU FILE IMPORT DANH MỤC KHÁCH HÀNG
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Mục có dấu * thì bắt buộc nhập)</t>
+    </r>
+  </si>
+  <si>
+    <t>A Nam, bạn sếp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,20 +121,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +171,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,20 +210,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -420,70 +532,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+    <row r="1" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>32402</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>33116</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Thông báo" error="Vui lòng chọn  đúng định dạng giới tính" sqref="E5:E1048576 E1 E3">
+      <formula1>"Nữ, Nam,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Thông báo" error="Vui lòng chọn  đúng định dạng giới tính" sqref="E4">
+      <formula1>"Nữ, Nam,"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ImportExcelTemplate/KhachHang_ImportTemplate.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ImportExcelTemplate/KhachHang_ImportTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Số điện  thoại</t>
   </si>
@@ -98,7 +98,10 @@
     </r>
   </si>
   <si>
-    <t>A Nam, bạn sếp</t>
+    <t>BS.Hoàng Văn Lợi</t>
+  </si>
+  <si>
+    <t>0978441444</t>
   </si>
 </sst>
 </file>
@@ -230,9 +233,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -250,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -532,147 +535,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>32402</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>33116</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3">
-        <v>7</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Thông báo" error="Vui lòng chọn  đúng định dạng giới tính" sqref="E5:E1048576 E1 E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Thông báo" error="Vui lòng chọn  đúng định dạng giới tính" sqref="E1 E3 E5:E1048576">
       <formula1>"Nữ, Nam,"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Thông báo" error="Vui lòng chọn  đúng định dạng giới tính" sqref="E4">

--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ImportExcelTemplate/KhachHang_ImportTemplate.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ImportExcelTemplate/KhachHang_ImportTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Số điện  thoại</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>0978441444</t>
+  </si>
+  <si>
+    <t>Mã khách hàng</t>
+  </si>
+  <si>
+    <t>D012</t>
+  </si>
+  <si>
+    <t>KH05</t>
   </si>
 </sst>
 </file>
@@ -535,118 +544,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="29.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>32402</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>33116</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Thông báo" error="Vui lòng chọn  đúng định dạng giới tính" sqref="E1 E3 E5:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Thông báo" error="Vui lòng chọn  đúng định dạng giới tính" sqref="F1 F3 F5:F1048576">
       <formula1>"Nữ, Nam,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Thông báo" error="Vui lòng chọn  đúng định dạng giới tính" sqref="E4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Thông báo" error="Vui lòng chọn  đúng định dạng giới tính" sqref="F4">
       <formula1>"Nữ, Nam,"</formula1>
     </dataValidation>
   </dataValidations>
